--- a/ClindoxAutomation/target/test-classes/IE_TEST.xlsx
+++ b/ClindoxAutomation/target/test-classes/IE_TEST.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Visit 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
   <si>
     <t>CRF</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Positive</t>
   </si>
   <si>
@@ -459,7 +456,7 @@
     <t>Discontinued</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -933,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1044,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1059,10 +1056,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
         <v>132</v>
-      </c>
-      <c r="I2" t="s">
-        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1130,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1216,7 +1213,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1234,7 +1231,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1298,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1372,7 +1369,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1486,7 +1483,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1504,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>80</v>
@@ -1556,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1620,7 +1617,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1672,7 +1669,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1823,7 +1820,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1868,22 +1865,22 @@
         <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="X2" t="s">
         <v>124</v>
@@ -1913,28 +1910,28 @@
         <v>128</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="AL2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AM2" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="AN2" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="s">
         <v>124</v>

--- a/ClindoxAutomation/target/test-classes/IE_TEST.xlsx
+++ b/ClindoxAutomation/target/test-classes/IE_TEST.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Checkbox test" sheetId="4" r:id="rId4"/>
     <sheet name="V3" sheetId="5" r:id="rId5"/>
     <sheet name="V555" sheetId="6" r:id="rId6"/>
-    <sheet name="End of Study" sheetId="7" r:id="rId7"/>
+    <sheet name="End of Study log" sheetId="7" r:id="rId7"/>
     <sheet name="Concomitant Medication Log" sheetId="8" r:id="rId8"/>
     <sheet name="Adverse Event Log" sheetId="9" r:id="rId9"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="148">
   <si>
     <t>CRF</t>
   </si>
@@ -45,16 +45,16 @@
     <t>Section 1</t>
   </si>
   <si>
-    <t>Date of Visit _130375</t>
-  </si>
-  <si>
-    <t>Time of Visit 1_130376</t>
-  </si>
-  <si>
-    <t>Weight _130377</t>
-  </si>
-  <si>
-    <t>Were the test performed_130378</t>
+    <t>Date of Visit _73186</t>
+  </si>
+  <si>
+    <t>Time of Visit 1_73187</t>
+  </si>
+  <si>
+    <t>Weight _73188</t>
+  </si>
+  <si>
+    <t>Were the test performed_73189</t>
   </si>
   <si>
     <t>Row No</t>
@@ -69,352 +69,358 @@
     <t>Test done</t>
   </si>
   <si>
-    <t>Gender_130380</t>
-  </si>
-  <si>
-    <t>Date_130381</t>
-  </si>
-  <si>
-    <t>AUTOMATION IE TEST</t>
-  </si>
-  <si>
-    <t>AUTO IE TEST</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>33327</t>
+    <t>Gender_73191</t>
+  </si>
+  <si>
+    <t>Date_73192</t>
+  </si>
+  <si>
+    <t>IE test</t>
+  </si>
+  <si>
+    <t>Study -1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>07/02/1996</t>
+  </si>
+  <si>
+    <t>14:16:00</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Supress Mandatory</t>
+  </si>
+  <si>
+    <t>Urine Test done _73193</t>
+  </si>
+  <si>
+    <t>Test results _73194</t>
+  </si>
+  <si>
+    <t>Age is &gt;18 _73195</t>
+  </si>
+  <si>
+    <t>Blood Pressure _73196</t>
+  </si>
+  <si>
+    <t>Details _73197</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>test completeed successfully</t>
+  </si>
+  <si>
+    <t>Supress Normal</t>
+  </si>
+  <si>
+    <t>Gender_73198</t>
+  </si>
+  <si>
+    <t>Result of the pregnancy test_73199</t>
+  </si>
+  <si>
+    <t>Checkbox test</t>
+  </si>
+  <si>
+    <t>Select the option _73200</t>
+  </si>
+  <si>
+    <t>Enter all the options _73201</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>14/12/2016</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>Sec1</t>
+  </si>
+  <si>
+    <t>GR1</t>
+  </si>
+  <si>
+    <t>DROP1</t>
+  </si>
+  <si>
+    <t>V555</t>
+  </si>
+  <si>
+    <t>End of Study log</t>
+  </si>
+  <si>
+    <t>End of Study</t>
+  </si>
+  <si>
+    <t>If no, complete the following section_1665</t>
+  </si>
+  <si>
+    <t>Reason study not completed_1666</t>
+  </si>
+  <si>
+    <t>Did the subject complete the study?_1664</t>
+  </si>
+  <si>
+    <t>If Adverse Event selected,please specify AE Seq. no_1667</t>
+  </si>
+  <si>
+    <t>Date of completion_1663</t>
+  </si>
+  <si>
+    <t>If Death selected,please specify Date of death_1668</t>
+  </si>
+  <si>
+    <t>If other, please provide additional comment:_1669</t>
+  </si>
+  <si>
+    <t>Investigator's signature_____________________1670</t>
+  </si>
+  <si>
+    <t>Date :_1671</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Dsfds</t>
+  </si>
+  <si>
+    <t>sdvx_12866</t>
+  </si>
+  <si>
+    <t>mand_12991</t>
+  </si>
+  <si>
+    <t>End of study 2</t>
+  </si>
+  <si>
+    <t>goood bye</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>study log data</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>trtetety</t>
+  </si>
+  <si>
+    <t>suhas.saravdekar@clindox.com</t>
+  </si>
+  <si>
+    <t>Concomitant Medication Log</t>
+  </si>
+  <si>
+    <t>Medication (Brand name)</t>
+  </si>
+  <si>
+    <t>Dose / day</t>
+  </si>
+  <si>
+    <t>p.r.n.</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Is it ongoing?</t>
+  </si>
+  <si>
+    <t>If “No”, please specify the ending date</t>
+  </si>
+  <si>
+    <t>Investigator's Signature_____________________1673</t>
+  </si>
+  <si>
+    <t>Date :_1674</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>33326</t>
-  </si>
-  <si>
-    <t>33325</t>
-  </si>
-  <si>
-    <t>12/11/2016</t>
-  </si>
-  <si>
-    <t>20:53</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>Supress Mandatory</t>
-  </si>
-  <si>
-    <t>Urine Test done _130382</t>
-  </si>
-  <si>
-    <t>Test results _130383</t>
-  </si>
-  <si>
-    <t>Age is &gt;18 _130384</t>
-  </si>
-  <si>
-    <t>Blood Pressure _130385</t>
-  </si>
-  <si>
-    <t>Details _130386</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>high bP</t>
-  </si>
-  <si>
-    <t>Supress Normal</t>
-  </si>
-  <si>
-    <t>Gender_130387</t>
-  </si>
-  <si>
-    <t>Result of the pregnancy test_130388</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Checkbox test</t>
-  </si>
-  <si>
-    <t>Select the option _130389</t>
-  </si>
-  <si>
-    <t>Enter all the options _130390</t>
-  </si>
-  <si>
-    <t>09/11/2016</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>Sec1</t>
-  </si>
-  <si>
-    <t>GR1</t>
-  </si>
-  <si>
-    <t>DROP1</t>
-  </si>
-  <si>
-    <t>V555</t>
-  </si>
-  <si>
-    <t>End of Study</t>
-  </si>
-  <si>
-    <t>If no, complete the following section_13234</t>
-  </si>
-  <si>
-    <t>Reason study not completed_13235</t>
-  </si>
-  <si>
-    <t>Did the subject complete the study?_13233</t>
-  </si>
-  <si>
-    <t>If Adverse Event selected,please specify AE Seq. no_13236</t>
-  </si>
-  <si>
-    <t>Date of completion_13232</t>
-  </si>
-  <si>
-    <t>If Death selected,please specify Date of death_13237</t>
-  </si>
-  <si>
-    <t>If other, please provide additional comment:_13238</t>
-  </si>
-  <si>
-    <t>Investigator's signature_____________________13239</t>
-  </si>
-  <si>
-    <t>Date :_13240</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>sdvx_13241</t>
-  </si>
-  <si>
-    <t>Normal_13242</t>
-  </si>
-  <si>
-    <t>TestDropBox Define Item_13243</t>
-  </si>
-  <si>
-    <t>11/11/2016</t>
-  </si>
-  <si>
-    <t>19/11/2016</t>
-  </si>
-  <si>
-    <t>tired.</t>
-  </si>
-  <si>
-    <t>sample text</t>
-  </si>
-  <si>
-    <t>suhas.saravdekar@clindox.com</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Concomitant Medication Log</t>
-  </si>
-  <si>
-    <t>Medication (Brand name)</t>
-  </si>
-  <si>
-    <t>Dose / day</t>
-  </si>
-  <si>
-    <t>p.r.n.</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Is it ongoing?</t>
-  </si>
-  <si>
-    <t>If “No”, please specify the ending date</t>
-  </si>
-  <si>
-    <t>Investigator's Signature_____________________13245</t>
-  </si>
-  <si>
-    <t>Date :_13246</t>
-  </si>
-  <si>
-    <t>TESCO</t>
+    <t>05/12/2016</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>17/11/2016</t>
-  </si>
-  <si>
     <t>Adverse Event Log</t>
   </si>
   <si>
-    <t>Occurrence of adverse event(s)? If yes, answer following sections_13260</t>
-  </si>
-  <si>
-    <t>Seq no 1._13265</t>
-  </si>
-  <si>
-    <t>Diagnosis/Symptom_13266</t>
-  </si>
-  <si>
-    <t>Start Date_13267</t>
-  </si>
-  <si>
-    <t>Time(24 h),if applicable_13268</t>
-  </si>
-  <si>
-    <t>If Ongoing_13269</t>
-  </si>
-  <si>
-    <t>If "No", please specify the End date_13270</t>
-  </si>
-  <si>
-    <t>Time (24 h), if applicable_13271</t>
-  </si>
-  <si>
-    <t>Comment_13272</t>
-  </si>
-  <si>
-    <t>Seriousness If yes complete "SAE form"_13261</t>
-  </si>
-  <si>
-    <t>Severity_13262</t>
-  </si>
-  <si>
-    <t>Casualty/Relationship to device_13273</t>
-  </si>
-  <si>
-    <t>Details of device the AE is related to_13274</t>
-  </si>
-  <si>
-    <t>Casualty/Relationship to procedure_13275</t>
-  </si>
-  <si>
-    <t>Action taken regarding the medical device_13276</t>
-  </si>
-  <si>
-    <t>Outcome_13263</t>
-  </si>
-  <si>
-    <t>If not resolved, please specify_13264</t>
-  </si>
-  <si>
-    <t>Further comments_13277</t>
-  </si>
-  <si>
-    <t>Seq no. 2_13278</t>
-  </si>
-  <si>
-    <t>Diagnosis/Symptom_13279</t>
-  </si>
-  <si>
-    <t>Start Date_13280</t>
-  </si>
-  <si>
-    <t>Time (24 h) if applicable_13281</t>
-  </si>
-  <si>
-    <t>Is it ongoing?_13282</t>
-  </si>
-  <si>
-    <t>If "No", please specify the ending date_13283</t>
-  </si>
-  <si>
-    <t>Time (24 h) if applicable_13247</t>
-  </si>
-  <si>
-    <t>Comment_13248</t>
-  </si>
-  <si>
-    <t>Seriousness If yes complete "SAE form"_13249</t>
-  </si>
-  <si>
-    <t>Severity_13250</t>
-  </si>
-  <si>
-    <t>Casualty/Relationship to device_13251</t>
-  </si>
-  <si>
-    <t>Details of device the AE is related to_13252</t>
-  </si>
-  <si>
-    <t>Casualty/Relationship to procedure_13253</t>
-  </si>
-  <si>
-    <t>Action taken regarding the medical device_13254</t>
-  </si>
-  <si>
-    <t>Outcome_13255</t>
-  </si>
-  <si>
-    <t>If not resolved, please specify_13256</t>
-  </si>
-  <si>
-    <t>Further comments_13257</t>
-  </si>
-  <si>
-    <t>Investigator's Signature_____________________13258</t>
-  </si>
-  <si>
-    <t>Date:_13259</t>
-  </si>
-  <si>
-    <t>danger</t>
-  </si>
-  <si>
-    <t>24/11/2016</t>
-  </si>
-  <si>
-    <t>21:03</t>
-  </si>
-  <si>
-    <t>automation complete</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>time to end.</t>
+    <t>Occurrence of adverse event(s)? If yes, answer following sections_1675</t>
+  </si>
+  <si>
+    <t>Seq no 1._1676</t>
+  </si>
+  <si>
+    <t>Diagnosis/Symptom_1677</t>
+  </si>
+  <si>
+    <t>Start Date_1678</t>
+  </si>
+  <si>
+    <t>Time(24 h),if applicable_1679</t>
+  </si>
+  <si>
+    <t>If Ongoing_1680</t>
+  </si>
+  <si>
+    <t>If "No", please specify the End date_1681</t>
+  </si>
+  <si>
+    <t>Time (24 h), if applicable_1682</t>
+  </si>
+  <si>
+    <t>Comment_1683</t>
+  </si>
+  <si>
+    <t>Seriousness If yes complete "SAE form"_1684</t>
+  </si>
+  <si>
+    <t>Severity_1685</t>
+  </si>
+  <si>
+    <t>Casualty/Relationship to device_1686</t>
+  </si>
+  <si>
+    <t>Details of device the AE is related to_1687</t>
+  </si>
+  <si>
+    <t>Casualty/Relationship to procedure_1688</t>
+  </si>
+  <si>
+    <t>Action taken regarding the medical device_1689</t>
+  </si>
+  <si>
+    <t>Outcome_1690</t>
+  </si>
+  <si>
+    <t>If not resolved, please specify_1691</t>
+  </si>
+  <si>
+    <t>Further comments_1692</t>
+  </si>
+  <si>
+    <t>Seq no. 2_1693</t>
+  </si>
+  <si>
+    <t>Diagnosis/Symptom_1694</t>
+  </si>
+  <si>
+    <t>Start Date_1695</t>
+  </si>
+  <si>
+    <t>Time (24 h) if applicable_1696</t>
+  </si>
+  <si>
+    <t>Is it ongoing?_1697</t>
+  </si>
+  <si>
+    <t>If "No", please specify the ending date_1698</t>
+  </si>
+  <si>
+    <t>Time (24 h) if applicable_1699</t>
+  </si>
+  <si>
+    <t>Comment_1700</t>
+  </si>
+  <si>
+    <t>Seriousness If yes complete "SAE form"_1701</t>
+  </si>
+  <si>
+    <t>Severity_1702</t>
+  </si>
+  <si>
+    <t>Casualty/Relationship to device_1703</t>
+  </si>
+  <si>
+    <t>Details of device the AE is related to_1704</t>
+  </si>
+  <si>
+    <t>Casualty/Relationship to procedure_1705</t>
+  </si>
+  <si>
+    <t>Action taken regarding the medical device_1706</t>
+  </si>
+  <si>
+    <t>Outcome_1707</t>
+  </si>
+  <si>
+    <t>If not resolved, please specify_1708</t>
+  </si>
+  <si>
+    <t>Further comments_1709</t>
+  </si>
+  <si>
+    <t>Investigator's Signature_____________________1710</t>
+  </si>
+  <si>
+    <t>Date:_1711</t>
   </si>
   <si>
     <t>fever</t>
   </si>
   <si>
-    <t>9:03 pm</t>
-  </si>
-  <si>
-    <t>21:04</t>
-  </si>
-  <si>
-    <t>finally completed.</t>
-  </si>
-  <si>
-    <t>TWO</t>
+    <t>17:41</t>
+  </si>
+  <si>
+    <t>trstcomment</t>
+  </si>
+  <si>
+    <t>not resolved</t>
+  </si>
+  <si>
+    <t>test comments</t>
+  </si>
+  <si>
+    <t>end of test</t>
+  </si>
+  <si>
+    <t>5:42 pm</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>test comment</t>
   </si>
   <si>
     <t>Male</t>
@@ -423,7 +429,10 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>B,C</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>A,C</t>
   </si>
   <si>
     <t>Adverse Event</t>
@@ -435,28 +444,28 @@
     <t>Not related (AE)</t>
   </si>
   <si>
-    <t>Chordate Controller</t>
+    <t>Chordate Catheter</t>
+  </si>
+  <si>
+    <t>Not related</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Resolved</t>
   </si>
   <si>
     <t>Related</t>
   </si>
   <si>
-    <t>Interrupted</t>
-  </si>
-  <si>
-    <t>Resolved</t>
-  </si>
-  <si>
-    <t>about to finish</t>
-  </si>
-  <si>
-    <t>Not related</t>
-  </si>
-  <si>
-    <t>Discontinued</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Chordate Headband</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -499,11 +508,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -517,56 +525,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D118-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>33</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="9217" name="Control 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s9217"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,14 +817,13 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -929,50 +886,50 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="N2" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -986,13 +943,12 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1012,25 +968,25 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1040,35 +996,35 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
         <v>35</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1081,14 +1037,10 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -1107,16 +1059,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1126,8 +1078,8 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="D2" s="1">
         <v>2</v>
@@ -1135,17 +1087,17 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1158,14 +1110,10 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
@@ -1184,16 +1132,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
         <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
@@ -1212,35 +1160,35 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" t="s">
-        <v>133</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1201,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1275,16 +1223,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1295,30 +1243,29 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1327,7 +1274,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1349,16 +1296,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1368,26 +1315,26 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1400,15 +1347,10 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" t="s">
@@ -1427,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>50</v>
@@ -1473,6 +1415,9 @@
       </c>
       <c r="U1" t="s">
         <v>63</v>
+      </c>
+      <c r="V1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1482,70 +1427,69 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1554,7 +1498,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1576,37 +1520,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1616,47 +1560,47 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1665,18 +1609,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="33" max="33" width="18" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:44">
       <c r="A1" t="s">
@@ -1695,121 +1635,121 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="R1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="T1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="U1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="V1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="W1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="X1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Y1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Z1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AA1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AB1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AC1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AD1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AE1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AG1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AH1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AI1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AJ1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AL1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AM1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AN1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AO1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="AP1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AQ1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AR1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -1820,163 +1760,133 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="AC2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X2" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AK2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO2" t="s">
         <v>127</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AP2" t="s">
         <v>128</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>129</v>
-      </c>
       <c r="AQ2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>33</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9217" r:id="rId4" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>